--- a/biology/Écologie/Formation_buissonnante_et_fourrés_décidus_à_Acacia_et_Commiphora_de_la_Somalie/Formation_buissonnante_et_fourrés_décidus_à_Acacia_et_Commiphora_de_la_Somalie.xlsx
+++ b/biology/Écologie/Formation_buissonnante_et_fourrés_décidus_à_Acacia_et_Commiphora_de_la_Somalie/Formation_buissonnante_et_fourrés_décidus_à_Acacia_et_Commiphora_de_la_Somalie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Formation_buissonnante_et_fourr%C3%A9s_d%C3%A9cidus_%C3%A0_Acacia_et_Commiphora_de_la_Somalie</t>
+          <t>Formation_buissonnante_et_fourrés_décidus_à_Acacia_et_Commiphora_de_la_Somalie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les formations buissonnantes et fourrés décidus à Acacia et Commiphora de la Somalie forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des prairies, savanes et brousses tropicales et subtropicales de l'écozone afrotropicale. Elle occupe la majorité de la Corne de l'Afrique, à l'Est des plateaux éthiopiens et comprend le désert de l'Ogaden et les semi-déserts du Nord-Est kényan, ainsi que la partie éthiopienne de la vallée du Rift jusqu'à la frontière entre l'Érythrée et le Soudan.
